--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -1017,9 +1017,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 2011- 2017 годах?</t>
-  </si>
-  <si>
     <t>С декабря две тысячи одиннадцатого года по настоящее время Министр финансов Российской Федерации Сидуанов Антон Германович</t>
   </si>
   <si>
@@ -1201,6 +1198,9 @@
   </si>
   <si>
     <t>Самый молодой Министр финансов - Борис Григорьевич Федоров (назначен Министром финансов РСФСР в 1990 году в возрасте 32 лет)</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 2011 - 2017 годах?</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1673,10 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66:M75"/>
+      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1778,12 +1778,12 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -1801,12 +1801,12 @@
         <v>140</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>141</v>
@@ -1824,12 +1824,12 @@
         <v>140</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>145</v>
@@ -1847,12 +1847,12 @@
         <v>140</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>149</v>
@@ -1870,12 +1870,12 @@
         <v>140</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>153</v>
@@ -1893,12 +1893,12 @@
         <v>140</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>157</v>
@@ -1916,12 +1916,12 @@
         <v>140</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>161</v>
@@ -1939,12 +1939,12 @@
         <v>140</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>165</v>
@@ -1962,12 +1962,12 @@
         <v>140</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>169</v>
@@ -1985,12 +1985,12 @@
         <v>140</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>173</v>
@@ -2008,12 +2008,12 @@
         <v>140</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>177</v>
@@ -2031,12 +2031,12 @@
         <v>140</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>181</v>
@@ -2054,12 +2054,12 @@
         <v>140</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>185</v>
@@ -2077,12 +2077,12 @@
         <v>140</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>189</v>
@@ -2100,12 +2100,12 @@
         <v>140</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>193</v>
@@ -2123,12 +2123,12 @@
         <v>140</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>197</v>
@@ -2146,12 +2146,12 @@
         <v>140</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>201</v>
@@ -2169,12 +2169,12 @@
         <v>140</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>205</v>
@@ -2192,12 +2192,12 @@
         <v>140</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>209</v>
@@ -2215,12 +2215,12 @@
         <v>140</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>213</v>
@@ -2238,12 +2238,12 @@
         <v>140</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>217</v>
@@ -2261,12 +2261,12 @@
         <v>140</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>221</v>
@@ -2284,12 +2284,12 @@
         <v>140</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>225</v>
@@ -2307,12 +2307,12 @@
         <v>140</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>229</v>
@@ -2330,12 +2330,12 @@
         <v>140</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>233</v>
@@ -2353,12 +2353,12 @@
         <v>140</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>237</v>
@@ -2376,12 +2376,12 @@
         <v>140</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>241</v>
@@ -2399,12 +2399,12 @@
         <v>140</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>245</v>
@@ -2422,12 +2422,12 @@
         <v>140</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>249</v>
@@ -2445,12 +2445,12 @@
         <v>140</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>253</v>
@@ -2468,12 +2468,12 @@
         <v>140</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>257</v>
@@ -2491,12 +2491,12 @@
         <v>140</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>261</v>
@@ -2514,12 +2514,12 @@
         <v>140</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>265</v>
@@ -2537,12 +2537,12 @@
         <v>140</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>269</v>
@@ -2560,12 +2560,12 @@
         <v>140</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>273</v>
@@ -2583,12 +2583,12 @@
         <v>140</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>277</v>
@@ -2606,12 +2606,12 @@
         <v>140</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>281</v>
@@ -2629,12 +2629,12 @@
         <v>140</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>285</v>
@@ -2652,12 +2652,12 @@
         <v>140</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>289</v>
@@ -2675,12 +2675,12 @@
         <v>140</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>293</v>
@@ -2698,12 +2698,12 @@
         <v>140</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>297</v>
@@ -2721,59 +2721,59 @@
         <v>140</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="F45" s="6" t="s">
         <v>140</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="F46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="I46" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -2784,10 +2784,10 @@
         <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>356</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>357</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>25</v>
@@ -2810,7 +2810,7 @@
         <v>31</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>28</v>
@@ -2830,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>359</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>360</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>32</v>
@@ -3210,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>38</v>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -444,9 +444,6 @@
     <t>1.20</t>
   </si>
   <si>
-    <t xml:space="preserve">1..21.jpg; </t>
-  </si>
-  <si>
     <t>1.22</t>
   </si>
   <si>
@@ -1176,9 +1173,6 @@
     <t>Васильев Алексей Иванович</t>
   </si>
   <si>
-    <t>1.3.jpg</t>
-  </si>
-  <si>
     <t>Первым Министром финансов в Российской империи был Васильев Алексей Иванович – с восьмого сентября одна тысяча восемьсот второго по пятнадцатое августа одна тысяча восемьсот седьмого года</t>
   </si>
   <si>
@@ -1200,7 +1194,13 @@
     <t>Самый молодой Министр финансов - Борис Григорьевич Федоров (назначен Министром финансов РСФСР в 1990 году в возрасте 32 лет)</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 2011 - 2017 годах?</t>
+    <t>Кто был Министром финансов в 2011 - нынешнее время?</t>
+  </si>
+  <si>
+    <t>1.2.jpg</t>
+  </si>
+  <si>
+    <t>1.21.jpg</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1673,10 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1778,18 +1778,18 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
@@ -1798,982 +1798,982 @@
         <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="E24" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>228</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>276</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>280</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>288</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>296</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="E44" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="F44" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="F46" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="I46" s="5" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -2784,19 +2784,19 @@
         <v>24</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -2810,16 +2810,16 @@
         <v>31</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -2830,10 +2830,10 @@
         <v>30</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>32</v>
@@ -2852,7 +2852,7 @@
         <v>55</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>54</v>
@@ -2875,7 +2875,7 @@
         <v>57</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>58</v>
@@ -2884,7 +2884,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
         <v>61</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>60</v>
@@ -2907,7 +2907,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -2930,7 +2930,7 @@
         <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2941,10 +2941,10 @@
         <v>66</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>124</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>67</v>
@@ -2953,13 +2953,13 @@
         <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2973,7 +2973,7 @@
         <v>70</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>68</v>
@@ -2982,13 +2982,13 @@
         <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H55" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,7 @@
         <v>19</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -3084,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>89</v>
@@ -3113,7 +3113,7 @@
         <v>19</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>94</v>
@@ -3142,7 +3142,7 @@
         <v>19</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>105</v>
@@ -3159,7 +3159,7 @@
         <v>109</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>107</v>
@@ -3171,7 +3171,7 @@
         <v>19</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>110</v>
@@ -3210,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>38</v>
@@ -3221,24 +3221,24 @@
         <v>49</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>113</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="5" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="C65" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="D65" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
+    <comment ref="A49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A65" authorId="0" shapeId="0">
+    <comment ref="A64" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="360">
   <si>
     <t>question</t>
   </si>
@@ -523,9 +523,6 @@
     <t>http://minfin.ru/ru/ministry/history/#ixzz4hVfxeiWX</t>
   </si>
   <si>
-    <t>С сентября одна тысяча восемьсот второго года по август одна тысяча восемьсот седьмого года Министром финансов был Васильев Алексей Иванович</t>
-  </si>
-  <si>
     <t xml:space="preserve">Раздел «Историческая справка» на официальном сайте Министерства финансов Российской Федерации </t>
   </si>
   <si>
@@ -1024,9 +1021,6 @@
   </si>
   <si>
     <t>https://www.minfin.ru/ru/ministry/history/</t>
-  </si>
-  <si>
-    <t>1.2.2</t>
   </si>
   <si>
     <t>1.2.3</t>
@@ -1670,13 +1664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1778,1107 +1772,1107 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="B8" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>311</v>
-      </c>
       <c r="B11" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>316</v>
-      </c>
       <c r="B16" s="6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="B22" s="6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>332</v>
-      </c>
       <c r="B32" s="6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="B41" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="B42" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="B44" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="B45" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="F45" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>346</v>
+        <v>23</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="C46" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>347</v>
+      <c r="E46" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>354</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>31</v>
+        <v>354</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>355</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>356</v>
+        <v>55</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>357</v>
+        <v>129</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
@@ -2887,21 +2881,21 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
@@ -2910,377 +2904,354 @@
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>123</v>
+        <v>70</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>125</v>
+        <v>85</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>134</v>
+      </c>
       <c r="H58" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>37</v>
+        <v>356</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="H63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>358</v>
+        <v>115</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="2"/>
-      <c r="D75" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" location="ixzz4nmSfJRp9 "/>
-    <hyperlink ref="G50" r:id="rId2" location="ixzz4nmSfJRp9 "/>
-    <hyperlink ref="G54" r:id="rId3" location="ixzz4hVkDO7dy"/>
-    <hyperlink ref="G55" r:id="rId4" location="ixzz4hVjxeGlb"/>
-    <hyperlink ref="G59" r:id="rId5" location="ixzz4hVherbzi"/>
-    <hyperlink ref="G60" r:id="rId6" location="ixzz4hVgiKOaO"/>
-    <hyperlink ref="G62" r:id="rId7" location="ixzz4hVfxeiWX"/>
-    <hyperlink ref="G46" r:id="rId8" location="ixzz4nmWC8dpx"/>
-    <hyperlink ref="G47" r:id="rId9"/>
-    <hyperlink ref="G48" r:id="rId10"/>
+    <hyperlink ref="G49" r:id="rId2" location="ixzz4nmSfJRp9 "/>
+    <hyperlink ref="G53" r:id="rId3" location="ixzz4hVkDO7dy"/>
+    <hyperlink ref="G54" r:id="rId4" location="ixzz4hVjxeGlb"/>
+    <hyperlink ref="G58" r:id="rId5" location="ixzz4hVherbzi"/>
+    <hyperlink ref="G59" r:id="rId6" location="ixzz4hVgiKOaO"/>
+    <hyperlink ref="G61" r:id="rId7" location="ixzz4hVfxeiWX"/>
+    <hyperlink ref="G45" r:id="rId8" location="ixzz4nmWC8dpx"/>
+    <hyperlink ref="G46" r:id="rId9"/>
+    <hyperlink ref="G47" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A64" authorId="0" shapeId="0">
+    <comment ref="A65" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="369">
   <si>
     <t>question</t>
   </si>
@@ -245,6 +245,15 @@
     <t>1.19</t>
   </si>
   <si>
+    <t>О чем был самый первый (знаменитый /противоречивый) указ Министерства Финансов?</t>
+  </si>
+  <si>
+    <t>О чем, самый, первый, знаменитый, противоречивый, указ, Министерство Финансов, Минфин</t>
+  </si>
+  <si>
+    <t>Из всех Министерств России, каким по счету было создано Министерство финансов?</t>
+  </si>
+  <si>
     <t>Назовите Министров финансов Российской Империи во времена правления Александра I (годы правления 1801-1825)</t>
   </si>
   <si>
@@ -257,9 +266,6 @@
     <t>При каком Министре финансов Российской Империи был сформирован особый резерв для покрытия расходов в экстренных ситуациях?</t>
   </si>
   <si>
-    <t>Резерв денежных средств для покрытия расходов в экстренных ситуациях был сформирован при Министре финансов Российской Империи Егоре Францовиче Канкрине</t>
-  </si>
-  <si>
     <t>При каком, Министр, финансов, Российская Империя, сформирован, особый, резерв, для покрытия, расходов, экстренные ситуации</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
   </si>
   <si>
     <t>Какой, Министр, финансов, Российская Империя, впервые, в истории, страны, российский, бюджет, бездефицитный</t>
-  </si>
-  <si>
-    <t>В истории страны российский бюджет был сформирован бездефицитным при Министре финансов Российской Империи Егоре Францовиче Канкрине</t>
   </si>
   <si>
     <t>Структура Министерства финансов определялась законодательством Российской Империи, начиная со специального «Особенного учреждения Министерства финансов» от двадцать пятого июля одна тысяча восемьсот одиннадцатого года, а затем – девятью «Узаконениями», которые утверждались российскими императорами на протяжении всего девятнадцатого века</t>
@@ -444,9 +447,18 @@
     <t>1.20</t>
   </si>
   <si>
+    <t xml:space="preserve">1..21.jpg; </t>
+  </si>
+  <si>
     <t>1.22</t>
   </si>
   <si>
+    <t>Каким, по счету, создано, Министерство финансов, Минфин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сколько департаментов было в ____ году </t>
+  </si>
+  <si>
     <t xml:space="preserve">В каком году была выпущена 10-ти рублевая юбилейная монета Министерства финансов Российской Федерации и что на ней изображено? </t>
   </si>
   <si>
@@ -457,6 +469,9 @@
   </si>
   <si>
     <t>год, выпуска, выпущена, 10-ти, десяти, рублевая, юбилейная, монета, Министерства финансов, Минфин, что, изображено</t>
+  </si>
+  <si>
+    <t>Сколько женщин занимало руководящие должности в Минфине в ___ году?</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -523,6 +538,9 @@
     <t>http://minfin.ru/ru/ministry/history/#ixzz4hVfxeiWX</t>
   </si>
   <si>
+    <t>С сентября одна тысяча восемьсот второго года по август одна тысяча восемьсот седьмого года Министром финансов был Васильев Алексей Иванович</t>
+  </si>
+  <si>
     <t xml:space="preserve">Раздел «Историческая справка» на официальном сайте Министерства финансов Российской Федерации </t>
   </si>
   <si>
@@ -542,9 +560,6 @@
     <t>Кто был Министром финансов в 1810 - 1823 годах?</t>
   </si>
   <si>
-    <t>С января одна тысяча восемьсот десятого года по апрель одна тысяча весемьсот двадцать третьего года Министром финансов был Гурьев Дмитрий Александрович</t>
-  </si>
-  <si>
     <t>Гурьев Дмитрий Александрович - Министр финансов Российской империи с 1 января 1810 года по 22 апреля 1823 года</t>
   </si>
   <si>
@@ -578,9 +593,6 @@
     <t>Кто был Министром финансов в 1852 - 1858 годах?</t>
   </si>
   <si>
-    <t>С апреля одна тысяча восемьсот пятьдесят второго года по март одна тысяча весемьсот пятьдесят восьмого года Министром финансов был Брок Петр Федорович</t>
-  </si>
-  <si>
     <t>Брок Петр Федорович - Министр финансов Российской империи с 9 апреля 1852 года по 23 марта 1858 года</t>
   </si>
   <si>
@@ -590,9 +602,6 @@
     <t>Кто был Министром финансов в 1858 - 1862 годах?</t>
   </si>
   <si>
-    <t>С марта одна тысяча восемьсот пятьдесят восьмого года по январь одна тысяча весемьсот шестьдесят второго года Министром финансов был Княжевич Александр Максимович</t>
-  </si>
-  <si>
     <t>Княжевич Александр Максимович - Министр финансов Российской империи с 23 марта 1858 года по 23 января 1862 года</t>
   </si>
   <si>
@@ -602,9 +611,6 @@
     <t>Кто был Министром финансов в 1862 - 1878 годах?</t>
   </si>
   <si>
-    <t>С января одна тысяча восемьсот шестьдясят второго года по июль одна тысяча весемьсот семьдесят восьмого года Министром финансов был Рейтерн Михаил Христофорович</t>
-  </si>
-  <si>
     <t>Рейтерн Михаил Христофорович - Министр финансов Российской империи с 23 января 1962 года по 7 июля 1878 года</t>
   </si>
   <si>
@@ -614,9 +620,6 @@
     <t>Кто был Министром финансов в 1878 - 1880 годах?</t>
   </si>
   <si>
-    <t>С июля одна тысяча восемьсот семьдесят восьмого года по октябрь одна тысяча весемьсот восьмедесятого года Министром финансов был Грейг Самуил Алексеевич</t>
-  </si>
-  <si>
     <t>Грейг Самуил Алексеевич - Министр финансов Российской империи с 7 июля 1878 года по 27 октября 1880 года</t>
   </si>
   <si>
@@ -626,9 +629,6 @@
     <t>Кто был Министром финансов в 1880 - 1881 годах?</t>
   </si>
   <si>
-    <t>С октября одна тысяча восемьсот восьмедесятого года по май одна тысяча весемьсот восьмедесят первого года Министром финансов был Абаза Александр Агеевич</t>
-  </si>
-  <si>
     <t>Абаза Александр Агеевич - Министр финансов Российской империи с 27 октября 1880 года по 6 мая 1881 года</t>
   </si>
   <si>
@@ -638,9 +638,6 @@
     <t>Кто был Министром финансов в 1881 - 1886 годах?</t>
   </si>
   <si>
-    <t>С мая одна тысяча восемьсот восьмедесят первого года по декабрь одна тысяча весемьсот восьмедесят шестого года Министром финансов был Бунге Николай Христианович</t>
-  </si>
-  <si>
     <t>Бунге Николай Христианович - Министр финансов Российской империи с 6 мая 1881 года по 31 декабря 1886 года</t>
   </si>
   <si>
@@ -650,9 +647,6 @@
     <t>Кто был Министром финансов в 1887 - 1892 годах?</t>
   </si>
   <si>
-    <t>С января одна тысяча восемьсот восьмедесят седьмого года по август одна тысяча весемьсот девяносто второго года Министром финансов был Вышнеградский Иван Алексеевич</t>
-  </si>
-  <si>
     <t>Вышнеградский Иван Алексеевич - Министр финансов Российской империи с 1 января 1887 года по 30 августа 1892 года</t>
   </si>
   <si>
@@ -698,9 +692,6 @@
     <t>Кто был Министром финансов в 1904 - 1905 годах?</t>
   </si>
   <si>
-    <t>С февраля одна тысяча девятьсот четвергото года по октябрь одна тысяча девятьсот пятого года Министром финансов был Коковцов Владимир Николаевич</t>
-  </si>
-  <si>
     <t>Коковцов Владимир Николаевич- Министр финансов Российской империи с 5 февраля 1904 года по 24 октября 1905 года</t>
   </si>
   <si>
@@ -732,9 +723,6 @@
   </si>
   <si>
     <t>Кто был Министром финансов в 1917 году?</t>
-  </si>
-  <si>
-    <t>С марта по октябрь одна тысяча девятьсот семнадцатого года Министрами финансов Временного правительства были Терещенко Михаил Иванович, Шингарев Андрей Иванович, Некрасов Николай Виссарионович и Бернацкий Михаил Владимирович</t>
   </si>
   <si>
     <t>Министры финансов Временного правительства: 
@@ -750,9 +738,6 @@
     <t>Кто был Министром финансов в 1918 - 1919 годах?</t>
   </si>
   <si>
-    <t>С ноября одна тысяча девятьсот восемнадцатого года по августа одна тысяча девятьсот девятнадцатый год Министром финансов Временного правительства был Михайлов Иван Адрианович</t>
-  </si>
-  <si>
     <t>Михайлов Иван Адрианович - Министр финансов Временного правительства с 18 ноября 1918 года по 16 августа 1919 года</t>
   </si>
   <si>
@@ -846,9 +831,6 @@
     <t>Кто был Министром финансов в 1948 - 1960 годах?</t>
   </si>
   <si>
-    <t>С декабря одна тысяча девятьсот сокор восьмого года по май одна тысяча девятьсот шестидесятого года Министром финансов эСэСэСэР был Зверев Арсений Григорьевич</t>
-  </si>
-  <si>
     <t>Зверев Арсений Григорьевич - Министр финансов СССР с 28 декабря 1948 года по 16 мая 1960 года</t>
   </si>
   <si>
@@ -1011,7 +993,7 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011</t>
   </si>
   <si>
-    <t>С декабря две тысячи одиннадцатого года по настоящее время Министр финансов Российской Федерации Сидуанов Антон Германович</t>
+    <t>Кто был Министром финансов в 2011- 2017 годах?</t>
   </si>
   <si>
     <t>Силуанов Антон Германович - Министр финансов Российской Федерации с 16 декабря 2011 года по настоящее время</t>
@@ -1023,6 +1005,9 @@
     <t>https://www.minfin.ru/ru/ministry/history/</t>
   </si>
   <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
     <t>1.2.3</t>
   </si>
   <si>
@@ -1144,6 +1129,9 @@
   </si>
   <si>
     <t>1.2.43</t>
+  </si>
+  <si>
+    <t>Нет ответа Предложили удалить списка ответов</t>
   </si>
   <si>
     <t>1.3</t>
@@ -1167,6 +1155,9 @@
     <t>Васильев Алексей Иванович</t>
   </si>
   <si>
+    <t>1.3.jpg</t>
+  </si>
+  <si>
     <t>Первым Министром финансов в Российской империи был Васильев Алексей Иванович – с восьмого сентября одна тысяча восемьсот второго по пятнадцатое августа одна тысяча восемьсот седьмого года</t>
   </si>
   <si>
@@ -1188,20 +1179,56 @@
     <t>Самый молодой Министр финансов - Борис Григорьевич Федоров (назначен Министром финансов РСФСР в 1990 году в возрасте 32 лет)</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 2011 - нынешнее время?</t>
-  </si>
-  <si>
-    <t>1.2.jpg</t>
-  </si>
-  <si>
-    <t>1.21.jpg</t>
+    <t>С января одна тысяча восемьсот шестьдесят второго года по июль одна тысяча восемьсот семьдесят восьмого года Министром финансов был Рейтерн Михаил Христофорович</t>
+  </si>
+  <si>
+    <t>С июля одна тысяча восемьсот семьдесят восьмого года по октябрь одна тысяча восемьсот восьмидесятого года Министром финансов был Грейг Самуил Алексеевич</t>
+  </si>
+  <si>
+    <t>С января одна тысяча восемьсот десятого года по апрель одна тысяча восемьсот двадцать третьего года Министром финансов был Гурьев Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>С апреля одна тысяча восемьсот пятьдесят второго года по март одна тысяча восемьсот пятьдесят восьмого года Министром финансов был Брок Петр Федорович</t>
+  </si>
+  <si>
+    <t>С марта одна тысяча восемьсот пятьдесят восьмого года по январь одна тысяча восемьсот шестьдесят второго года Министром финансов был Княжевич Александр Максимович</t>
+  </si>
+  <si>
+    <t>С января одна тысяча восемьсот восемьдесят седьмого года по август одна тысяча восемьсот девяносто второго года Министром финансов был Вышнеградский Иван Алексеевич</t>
+  </si>
+  <si>
+    <t>С февраля одна тысяча девятьсот четвертого года по октябрь одна тысяча девятьсот пятого года Министром финансов был Коковцов Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>С марта по октябрь одна тысяча девятьсот семнадцатого года Министрами финансов Временного правительства были Терещенко Михаил Иванович, Шингарёв Андрей Иванович, Некрасов Николай Виссарионович и Бернацкий Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>С ноября одна тысяча девятьсот восемнадцатого года по август одна тысяча девятьсот девятнадцатого года Министром финансов Временного правительства был Михайлов Иван Адрианович</t>
+  </si>
+  <si>
+    <t>С декабря одна тысяча девятьсот сорок восьмого года по май одна тысяча девятьсот шестидесятого года Министром финансов эСэСэСэР был Зверев Арсений Григорьевич</t>
+  </si>
+  <si>
+    <t>С декабря две тысячи одиннадцатого года по настоящее время Министр финансов Российской Федерации Силуанов Антон Германович</t>
+  </si>
+  <si>
+    <t>С октября одна тысяча восемьсот восьмидесятого года по май одна тысяча восемьсот восемьдесят первого года Министром финансов был Абаз\+а Александр Агеевич</t>
+  </si>
+  <si>
+    <t>С мая одна тысяча восемьсот восемьдесят первого года по декабрь одна тысяча восемьсот восемьдесят шестого года Министром финансов был Бунге Николай Христи\+анович</t>
+  </si>
+  <si>
+    <t>Резерв денежных средств для покрытия расходов в экстренных ситуациях был сформирован при Министре финансов Российской Империи Егоре Фр\+анцовиче Канкрине</t>
+  </si>
+  <si>
+    <t>В истории страны российский бюджет был сформирован бездефицитным при Министре финансов Российской Империи Егоре Фр\+анцовиче Канкрине</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1239,6 +1266,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color indexed="81"/>
@@ -1255,12 +1289,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1291,7 +1331,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1329,19 +1369,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1664,13 +1707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1730,10 +1773,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1754,7 +1797,7 @@
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1772,133 +1815,133 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>148</v>
+        <v>356</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>357</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>161</v>
@@ -1907,969 +1950,969 @@
         <v>162</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="F19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="F20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="C22" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>216</v>
+        <v>362</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="F31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="B44" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="F39" s="6" t="s">
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="G39" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="5" t="s">
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="F49" s="6"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>61</v>
+        <v>367</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>60</v>
@@ -2878,73 +2921,67 @@
         <v>19</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>65</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>68</v>
@@ -2953,305 +2990,362 @@
         <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>126</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>73</v>
+      <c r="D55" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="D57" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="6"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="14" t="s">
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="I62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="17" t="s">
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E63" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="F62" s="6"/>
-      <c r="G62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A63" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="10"/>
-      <c r="H63" s="5" t="s">
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" s="6"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I63" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="I64" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C64" s="5" t="s">
+    </row>
+    <row r="65" spans="1:5" s="5" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="B65" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D70" s="13"/>
+      <c r="E70" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="5" t="s">
+    </row>
+    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2"/>
-      <c r="D74" s="2"/>
+      <c r="C72" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D73" s="13"/>
+      <c r="E73" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" location="ixzz4nmSfJRp9 "/>
-    <hyperlink ref="G49" r:id="rId2" location="ixzz4nmSfJRp9 "/>
-    <hyperlink ref="G53" r:id="rId3" location="ixzz4hVkDO7dy"/>
-    <hyperlink ref="G54" r:id="rId4" location="ixzz4hVjxeGlb"/>
-    <hyperlink ref="G58" r:id="rId5" location="ixzz4hVherbzi"/>
-    <hyperlink ref="G59" r:id="rId6" location="ixzz4hVgiKOaO"/>
-    <hyperlink ref="G61" r:id="rId7" location="ixzz4hVfxeiWX"/>
-    <hyperlink ref="G45" r:id="rId8" location="ixzz4nmWC8dpx"/>
-    <hyperlink ref="G46" r:id="rId9"/>
-    <hyperlink ref="G47" r:id="rId10"/>
+    <hyperlink ref="G50" r:id="rId2" location="ixzz4nmSfJRp9 "/>
+    <hyperlink ref="G54" r:id="rId3" location="ixzz4hVkDO7dy"/>
+    <hyperlink ref="G55" r:id="rId4" location="ixzz4hVjxeGlb"/>
+    <hyperlink ref="G59" r:id="rId5" location="ixzz4hVherbzi"/>
+    <hyperlink ref="G60" r:id="rId6" location="ixzz4hVgiKOaO"/>
+    <hyperlink ref="G62" r:id="rId7" location="ixzz4hVfxeiWX"/>
+    <hyperlink ref="G46" r:id="rId8" location="ixzz4nmWC8dpx"/>
+    <hyperlink ref="G47" r:id="rId9"/>
+    <hyperlink ref="G48" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
@@ -10,72 +10,17 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">Согласовано с Адм деп.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Согласованные ответы с Адм_деп</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A65" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="14"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Вопрос от Департамента оранизации составления и исполнения федерального бюджета</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="367">
   <si>
     <t>question</t>
   </si>
@@ -480,18 +425,12 @@
     <t>Резерв денежных средств для покрытия расходов в экстренных ситуациях был сформирован при Егоре Францовиче Канкрине, находившегося в должности Министра финансов Российской Империи с 1823 г. по 1844 г.</t>
   </si>
   <si>
-    <t>В истории страны российский бюджет был сформирован бездефицитным при Егоре Францовиче Канкрине, находившегося в должности Министра финансов Российской Империи с 1823 г. по 1844 г.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Княжевич Александр Максимович; Княжевич Дмитрий Максимович </t>
   </si>
   <si>
     <t>Княжевич Александр Максимович занимал пост Министра финансов Российской Империи, а его брат Княжевич Дмитрий Максимович  был директором Департамента государственного казначейства</t>
   </si>
   <si>
-    <t>С 1858 г.по 1862 г. пост Министра финансов Российской Империи занимал Княжевич Александр Максимович, а его брат - Княжевич Дмитрий Максимович был директором Департамента государственного казначейства с 1831 г. по 1837 г.</t>
-  </si>
-  <si>
     <t>1.11_1.jpg; 1.11_2.jpg</t>
   </si>
   <si>
@@ -507,13 +446,6 @@
     <t>Зверев Арсений Григорьевич и Гарбузов Василий Федорович -  это народные комиссары финансов эСэСэСэР и Министры эСэСэСэР, проработавшие в Минфине более двадцати лет</t>
   </si>
   <si>
-    <t>Во времена правления Александра I были следующие Министры финансов: 
-• Васильев Алексей Иванович с 1802- по 1807года;
-• Голубцов Федор Александрович с 1807- по 1810 года; 
-• Гурьев Дмитрий Александрович с 1810-по 1823года; 
-• Канкрин Егор Францевич с 1823-по 1825, начало деятельности</t>
-  </si>
-  <si>
     <t xml:space="preserve"> http://minfin.ru/ru/ministry/history/#ixzz4hVkUz4Fw</t>
   </si>
   <si>
@@ -536,9 +468,6 @@
   </si>
   <si>
     <t>http://minfin.ru/ru/ministry/history/#ixzz4hVfxeiWX</t>
-  </si>
-  <si>
-    <t>С сентября одна тысяча восемьсот второго года по август одна тысяча восемьсот седьмого года Министром финансов был Васильев Алексей Иванович</t>
   </si>
   <si>
     <t xml:space="preserve">Раздел «Историческая справка» на официальном сайте Министерства финансов Российской Федерации </t>
@@ -683,16 +612,10 @@
     <t>С октября одна тысяча девятьсот пятого года по апрель одна тысяча девятьсот шестого года Министром финансов был Шипов Иван Павлович</t>
   </si>
   <si>
-    <t>Шипов Иванн Павлович- Министр финансов Российской империи с 28 октября 1905 года по 24 апреля 1906 года</t>
-  </si>
-  <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1905, 1906</t>
   </si>
   <si>
     <t>Кто был Министром финансов в 1904 - 1905 годах?</t>
-  </si>
-  <si>
-    <t>Коковцов Владимир Николаевич- Министр финансов Российской империи с 5 февраля 1904 года по 24 октября 1905 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1904, 1905</t>
@@ -762,9 +685,6 @@
     <t>С июля одна тысяча девятьсот двадцать третьего года по январь одна тысяча девятьсот двадцать шестого года Министром финансов эСэСэСэР был Сокольников Григорий Яковлевич</t>
   </si>
   <si>
-    <t>Сокольников Григорий Яковлевич- Министр финансов СССР с 6 июля 1923 года по 16 января 1926 года</t>
-  </si>
-  <si>
     <t>Кто, был, Министр, финансов, СССР, 1923, 1924, 1925, 1926</t>
   </si>
   <si>
@@ -774,9 +694,6 @@
     <t>С января одна тысяча девятьсот двадцать шестого года по октябрь одна тысяча девятьсот тридцатого года Нарком финансов эСэСэСэР был Брюханов Николай Павлович</t>
   </si>
   <si>
-    <t>Брюханов Николай Павлович- Нарком финансов СССР с 16 января 1926 года по 18 октября 1930 года</t>
-  </si>
-  <si>
     <t>Кто, был, Министр, финансов, Нарком, СССР, 1926, 1925, 1926, 1927, 1928, 1929, 1930</t>
   </si>
   <si>
@@ -1005,9 +922,6 @@
     <t>https://www.minfin.ru/ru/ministry/history/</t>
   </si>
   <si>
-    <t>1.2.2</t>
-  </si>
-  <si>
     <t>1.2.3</t>
   </si>
   <si>
@@ -1143,92 +1057,117 @@
     <t>Кто был первым Министром финансов?</t>
   </si>
   <si>
-    <t>После создания Министерства финансов Васильев Алексей Иванович в 1802 назначен первым министром финансов в Российской империи. Алексей Иванович занимал эту должность с 08.09.1802 по 15.08.1807.
+    <t>https://www.minfin.ru/ru/ministry/history/#ixzz4nmWC8dpx</t>
+  </si>
+  <si>
+    <t>Васильев Алексей Иванович</t>
+  </si>
+  <si>
+    <t>1.3.jpg</t>
+  </si>
+  <si>
+    <t>Первым Министром финансов в Российской империи был Васильев Алексей Иванович – с восьмого сентября одна тысяча восемьсот второго по пятнадцатое августа одна тысяча восемьсот седьмого года</t>
+  </si>
+  <si>
+    <t>«Предметы Министерства финансов заключались вообще в управлении государственными доходами и расходами»</t>
+  </si>
+  <si>
+    <t>В положении о Министерстве финансов цели его деятельности определялись следующим образом: «Предметы Министерства финансов заключались вообще в управлении государственными доходами и расходами». К ведомству  принадлежали источники государственных расходов, не состоящие в заведовании другими ведомствами. Кроме того, на Минфин были возложены обязанности «по заведованию торговлей и промышленностью, делами по руководству действиями частных железных дорог, установление тарифов, направления тарифного дела на казенных железных дорогах и денежные земские повинности»</t>
+  </si>
+  <si>
+    <t>Создание Министерства финансов в 1802 году инициировал император Александр I</t>
+  </si>
+  <si>
+    <t>Первоначальное название - Министерство финансов</t>
+  </si>
+  <si>
+    <t>Манифестом 8 сентября 1802 г. учреждено Министерство финансов, на обязанности которого лежало "управление казенными и государственными частями, кои доставляют правительству нужные на содержание его доходы, и генеральное всех доходов рассигнование по разным частям государственных расходов"</t>
+  </si>
+  <si>
+    <t>Самый молодой Министр финансов - Борис Григорьевич Федоров (назначен Министром финансов РСФСР в 1990 году в возрасте 32 лет)</t>
+  </si>
+  <si>
+    <t>С января одна тысяча восемьсот шестьдесят второго года по июль одна тысяча восемьсот семьдесят восьмого года Министром финансов был Рейтерн Михаил Христофорович</t>
+  </si>
+  <si>
+    <t>С июля одна тысяча восемьсот семьдесят восьмого года по октябрь одна тысяча восемьсот восьмидесятого года Министром финансов был Грейг Самуил Алексеевич</t>
+  </si>
+  <si>
+    <t>С января одна тысяча восемьсот десятого года по апрель одна тысяча восемьсот двадцать третьего года Министром финансов был Гурьев Дмитрий Александрович</t>
+  </si>
+  <si>
+    <t>С апреля одна тысяча восемьсот пятьдесят второго года по март одна тысяча восемьсот пятьдесят восьмого года Министром финансов был Брок Петр Федорович</t>
+  </si>
+  <si>
+    <t>С марта одна тысяча восемьсот пятьдесят восьмого года по январь одна тысяча восемьсот шестьдесят второго года Министром финансов был Княжевич Александр Максимович</t>
+  </si>
+  <si>
+    <t>С января одна тысяча восемьсот восемьдесят седьмого года по август одна тысяча восемьсот девяносто второго года Министром финансов был Вышнеградский Иван Алексеевич</t>
+  </si>
+  <si>
+    <t>С февраля одна тысяча девятьсот четвертого года по октябрь одна тысяча девятьсот пятого года Министром финансов был Коковцов Владимир Николаевич</t>
+  </si>
+  <si>
+    <t>С марта по октябрь одна тысяча девятьсот семнадцатого года Министрами финансов Временного правительства были Терещенко Михаил Иванович, Шингарёв Андрей Иванович, Некрасов Николай Виссарионович и Бернацкий Михаил Владимирович</t>
+  </si>
+  <si>
+    <t>С ноября одна тысяча девятьсот восемнадцатого года по август одна тысяча девятьсот девятнадцатого года Министром финансов Временного правительства был Михайлов Иван Адрианович</t>
+  </si>
+  <si>
+    <t>С декабря одна тысяча девятьсот сорок восьмого года по май одна тысяча девятьсот шестидесятого года Министром финансов эСэСэСэР был Зверев Арсений Григорьевич</t>
+  </si>
+  <si>
+    <t>С декабря две тысячи одиннадцатого года по настоящее время Министр финансов Российской Федерации Силуанов Антон Германович</t>
+  </si>
+  <si>
+    <t>С октября одна тысяча восемьсот восьмидесятого года по май одна тысяча восемьсот восемьдесят первого года Министром финансов был Абаз\+а Александр Агеевич</t>
+  </si>
+  <si>
+    <t>С мая одна тысяча восемьсот восемьдесят первого года по декабрь одна тысяча восемьсот восемьдесят шестого года Министром финансов был Бунге Николай Христи\+анович</t>
+  </si>
+  <si>
+    <t>Резерв денежных средств для покрытия расходов в экстренных ситуациях был сформирован при Министре финансов Российской Империи Егоре Фр\+анцовиче Канкрине</t>
+  </si>
+  <si>
+    <t>В истории страны российский бюджет был сформирован бездефицитным при Министре финансов Российской Империи Егоре Фр\+анцовиче Канкрине</t>
+  </si>
+  <si>
+    <t>После создания Министерства финансов Васильев Алексей Иванович в 1802 году был назначен первым министром финансов в Российской империи. Алексей Иванович занимал эту должность с 08.09.1802 по 15.08.1807.
 При нем были заложены важные законодательные меры. 
 В 1802 был утверждён устав о государственных лесах, внесший значительные улучшения в порядок заведования лесными имуществами. 
 В 1806 получило силу закона разработанное под его непосредственным руководством горное положение, которое частично восстановило принцип горной свободы (в течение многих десятилетий этот документ был с небольшими изменениями основой российского горного законодательства)</t>
   </si>
   <si>
-    <t>https://www.minfin.ru/ru/ministry/history/#ixzz4nmWC8dpx</t>
-  </si>
-  <si>
-    <t>Васильев Алексей Иванович</t>
-  </si>
-  <si>
-    <t>1.3.jpg</t>
-  </si>
-  <si>
-    <t>Первым Министром финансов в Российской империи был Васильев Алексей Иванович – с восьмого сентября одна тысяча восемьсот второго по пятнадцатое августа одна тысяча восемьсот седьмого года</t>
-  </si>
-  <si>
-    <t>«Предметы Министерства финансов заключались вообще в управлении государственными доходами и расходами»</t>
-  </si>
-  <si>
-    <t>В положении о Министерстве финансов цели его деятельности определялись следующим образом: «Предметы Министерства финансов заключались вообще в управлении государственными доходами и расходами». К ведомству  принадлежали источники государственных расходов, не состоящие в заведовании другими ведомствами. Кроме того, на Минфин были возложены обязанности «по заведованию торговлей и промышленностью, делами по руководству действиями частных железных дорог, установление тарифов, направления тарифного дела на казенных железных дорогах и денежные земские повинности»</t>
-  </si>
-  <si>
-    <t>Создание Министерства финансов в 1802 году инициировал император Александр I</t>
-  </si>
-  <si>
-    <t>Первоначальное название - Министерство финансов</t>
-  </si>
-  <si>
-    <t>Манифестом 8 сентября 1802 г. учреждено Министерство финансов, на обязанности которого лежало "управление казенными и государственными частями, кои доставляют правительству нужные на содержание его доходы, и генеральное всех доходов рассигнование по разным частям государственных расходов"</t>
-  </si>
-  <si>
-    <t>Самый молодой Министр финансов - Борис Григорьевич Федоров (назначен Министром финансов РСФСР в 1990 году в возрасте 32 лет)</t>
-  </si>
-  <si>
-    <t>С января одна тысяча восемьсот шестьдесят второго года по июль одна тысяча восемьсот семьдесят восьмого года Министром финансов был Рейтерн Михаил Христофорович</t>
-  </si>
-  <si>
-    <t>С июля одна тысяча восемьсот семьдесят восьмого года по октябрь одна тысяча восемьсот восьмидесятого года Министром финансов был Грейг Самуил Алексеевич</t>
-  </si>
-  <si>
-    <t>С января одна тысяча восемьсот десятого года по апрель одна тысяча восемьсот двадцать третьего года Министром финансов был Гурьев Дмитрий Александрович</t>
-  </si>
-  <si>
-    <t>С апреля одна тысяча восемьсот пятьдесят второго года по март одна тысяча восемьсот пятьдесят восьмого года Министром финансов был Брок Петр Федорович</t>
-  </si>
-  <si>
-    <t>С марта одна тысяча восемьсот пятьдесят восьмого года по январь одна тысяча восемьсот шестьдесят второго года Министром финансов был Княжевич Александр Максимович</t>
-  </si>
-  <si>
-    <t>С января одна тысяча восемьсот восемьдесят седьмого года по август одна тысяча восемьсот девяносто второго года Министром финансов был Вышнеградский Иван Алексеевич</t>
-  </si>
-  <si>
-    <t>С февраля одна тысяча девятьсот четвертого года по октябрь одна тысяча девятьсот пятого года Министром финансов был Коковцов Владимир Николаевич</t>
-  </si>
-  <si>
-    <t>С марта по октябрь одна тысяча девятьсот семнадцатого года Министрами финансов Временного правительства были Терещенко Михаил Иванович, Шингарёв Андрей Иванович, Некрасов Николай Виссарионович и Бернацкий Михаил Владимирович</t>
-  </si>
-  <si>
-    <t>С ноября одна тысяча девятьсот восемнадцатого года по август одна тысяча девятьсот девятнадцатого года Министром финансов Временного правительства был Михайлов Иван Адрианович</t>
-  </si>
-  <si>
-    <t>С декабря одна тысяча девятьсот сорок восьмого года по май одна тысяча девятьсот шестидесятого года Министром финансов эСэСэСэР был Зверев Арсений Григорьевич</t>
-  </si>
-  <si>
-    <t>С декабря две тысячи одиннадцатого года по настоящее время Министр финансов Российской Федерации Силуанов Антон Германович</t>
-  </si>
-  <si>
-    <t>С октября одна тысяча восемьсот восьмидесятого года по май одна тысяча восемьсот восемьдесят первого года Министром финансов был Абаз\+а Александр Агеевич</t>
-  </si>
-  <si>
-    <t>С мая одна тысяча восемьсот восемьдесят первого года по декабрь одна тысяча восемьсот восемьдесят шестого года Министром финансов был Бунге Николай Христи\+анович</t>
-  </si>
-  <si>
-    <t>Резерв денежных средств для покрытия расходов в экстренных ситуациях был сформирован при Министре финансов Российской Империи Егоре Фр\+анцовиче Канкрине</t>
-  </si>
-  <si>
-    <t>В истории страны российский бюджет был сформирован бездефицитным при Министре финансов Российской Империи Егоре Фр\+анцовиче Канкрине</t>
+    <t>Шипов Иван Павлович - Министр финансов Российской империи с 28 октября 1905 года по 24 апреля 1906 года</t>
+  </si>
+  <si>
+    <t>Коковцов Владимир Николаевич - Министр финансов Российской империи с 5 февраля 1904 года по 24 октября 1905 года</t>
+  </si>
+  <si>
+    <t>Сокольников Григорий Яковлевич - Министр финансов СССР с 6 июля 1923 года по 16 января 1926 года</t>
+  </si>
+  <si>
+    <t>Брюханов Николай Павлович - Нарком финансов СССР с 16 января 1926 года по 18 октября 1930 года</t>
+  </si>
+  <si>
+    <t>Во времена правления Александра I были следующие Министры финансов: 
+• Васильев Алексей Иванович с 1802 - по 1807года;
+• Голубцов Федор Александрович с 1807 - по 1810 года; 
+• Гурьев Дмитрий Александрович с 1810 - по 1823года; 
+• Канкрин Егор Францевич с 1823-по 1825, начало деятельности</t>
+  </si>
+  <si>
+    <t>В истории страны российский бюджет впервые был сформирован бездефицитным при Егоре Францовиче Канкрине, находившегося в должности Министра финансов Российской Империи с 1823 г. по 1844 г.</t>
+  </si>
+  <si>
+    <t>С 1858 г. по 1862 г. пост Министра финансов Российской Империи занимал Княжевич Александр Максимович, а его брат - Княжевич Дмитрий Максимович был директором Департамента государственного казначейства с 1831 г. по 1837 г.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,22 +1209,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -1699,24 +1622,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="2" customWidth="1"/>
@@ -1734,7 +1657,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="111" customHeight="1">
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
@@ -1795,7 +1718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A3" s="7" t="s">
         <v>123</v>
       </c>
@@ -1815,64 +1738,64 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A4" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A5" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
+      <c r="A6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>150</v>
@@ -1881,15 +1804,15 @@
         <v>151</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A7" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>152</v>
@@ -1904,182 +1827,182 @@
         <v>155</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A8" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A9" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="C9" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A10" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A11" s="7" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A12" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>355</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A13" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25">
+      <c r="A14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="63">
+      <c r="A15" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>359</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>179</v>
@@ -2088,15 +2011,15 @@
         <v>180</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A16" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>181</v>
@@ -2111,15 +2034,15 @@
         <v>184</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25">
       <c r="A17" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>185</v>
@@ -2128,1227 +2051,1203 @@
         <v>186</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A18" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="C18" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="63">
+      <c r="A19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A20" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25">
+      <c r="A21" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A22" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A23" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A24" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A25" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A26" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B26" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A27" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A28" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A29" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B29" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="63">
+      <c r="A30" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B30" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5">
+      <c r="A31" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B31" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25">
+      <c r="A32" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B32" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A33" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B33" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A34" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B34" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A35" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B35" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A36" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B36" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A37" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B37" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A38" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="B38" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A39" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="B39" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A40" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="B40" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A41" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B41" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A42" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="B42" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="63">
+      <c r="A43" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="B43" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="47.25">
+      <c r="A44" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="B44" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5">
+      <c r="A45" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="B45" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="F45" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="H45" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="I45" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75">
+      <c r="A46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="D46" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1">
+      <c r="A48" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D45" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
-        <v>340</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>352</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75">
       <c r="A50" s="14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>58</v>
+        <v>357</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>124</v>
+        <v>365</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5">
       <c r="A52" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>368</v>
+        <v>63</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1">
       <c r="A53" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>64</v>
+        <v>366</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>128</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1">
       <c r="A55" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>130</v>
+        <v>86</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="63">
       <c r="A56" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F56" s="6"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1">
       <c r="A57" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5">
       <c r="A58" s="14" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="6"/>
-      <c r="G58" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H58" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="110.25">
       <c r="A59" s="14" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25">
       <c r="A60" s="14" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1">
       <c r="A61" s="14" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1">
+      <c r="A62" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F62" s="6"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="63">
       <c r="A63" s="17" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>37</v>
+        <v>343</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="H63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="79.5" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>353</v>
+        <v>119</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F64" s="6"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E65" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" s="5" customFormat="1">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" s="5" customFormat="1">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" s="5" customFormat="1">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" s="5" customFormat="1">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
-    </row>
-    <row r="70" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="47.25">
+      <c r="B69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" s="13"/>
+      <c r="E69" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="47.25">
       <c r="B70" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="31.5">
       <c r="B71" s="5" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D71" s="13"/>
-      <c r="E71" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="1:5" ht="47.25">
       <c r="B72" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" location="ixzz4nmSfJRp9 "/>
-    <hyperlink ref="G50" r:id="rId2" location="ixzz4nmSfJRp9 "/>
-    <hyperlink ref="G54" r:id="rId3" location="ixzz4hVkDO7dy"/>
-    <hyperlink ref="G55" r:id="rId4" location="ixzz4hVjxeGlb"/>
-    <hyperlink ref="G59" r:id="rId5" location="ixzz4hVherbzi"/>
-    <hyperlink ref="G60" r:id="rId6" location="ixzz4hVgiKOaO"/>
-    <hyperlink ref="G62" r:id="rId7" location="ixzz4hVfxeiWX"/>
-    <hyperlink ref="G46" r:id="rId8" location="ixzz4nmWC8dpx"/>
-    <hyperlink ref="G47" r:id="rId9"/>
-    <hyperlink ref="G48" r:id="rId10"/>
+    <hyperlink ref="G49" r:id="rId2" location="ixzz4nmSfJRp9 "/>
+    <hyperlink ref="G53" r:id="rId3" location="ixzz4hVkDO7dy"/>
+    <hyperlink ref="G54" r:id="rId4" location="ixzz4hVjxeGlb"/>
+    <hyperlink ref="G58" r:id="rId5" location="ixzz4hVherbzi"/>
+    <hyperlink ref="G59" r:id="rId6" location="ixzz4hVgiKOaO"/>
+    <hyperlink ref="G61" r:id="rId7" location="ixzz4hVfxeiWX"/>
+    <hyperlink ref="G45" r:id="rId8" location="ixzz4nmWC8dpx"/>
+    <hyperlink ref="G46" r:id="rId9"/>
+    <hyperlink ref="G47" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
@@ -10,9 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="360">
   <si>
     <t>question</t>
   </si>
@@ -188,15 +187,6 @@
   </si>
   <si>
     <t>1.19</t>
-  </si>
-  <si>
-    <t>О чем был самый первый (знаменитый /противоречивый) указ Министерства Финансов?</t>
-  </si>
-  <si>
-    <t>О чем, самый, первый, знаменитый, противоречивый, указ, Министерство Финансов, Минфин</t>
-  </si>
-  <si>
-    <t>Из всех Министерств России, каким по счету было создано Министерство финансов?</t>
   </si>
   <si>
     <t>Назовите Министров финансов Российской Империи во времена правления Александра I (годы правления 1801-1825)</t>
@@ -398,12 +388,6 @@
     <t>1.22</t>
   </si>
   <si>
-    <t>Каким, по счету, создано, Министерство финансов, Минфин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сколько департаментов было в ____ году </t>
-  </si>
-  <si>
     <t xml:space="preserve">В каком году была выпущена 10-ти рублевая юбилейная монета Министерства финансов Российской Федерации и что на ней изображено? </t>
   </si>
   <si>
@@ -414,9 +398,6 @@
   </si>
   <si>
     <t>год, выпуска, выпущена, 10-ти, десяти, рублевая, юбилейная, монета, Министерства финансов, Минфин, что, изображено</t>
-  </si>
-  <si>
-    <t>Сколько женщин занимало руководящие должности в Минфине в ___ году?</t>
   </si>
   <si>
     <t>1.2.1</t>
@@ -1045,9 +1026,6 @@
     <t>1.2.43</t>
   </si>
   <si>
-    <t>Нет ответа Предложили удалить списка ответов</t>
-  </si>
-  <si>
     <t>1.3</t>
   </si>
   <si>
@@ -1166,8 +1144,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1204,26 +1182,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1254,7 +1219,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1292,22 +1257,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1622,24 +1584,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F69" sqref="F69"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" style="2" customWidth="1"/>
@@ -1657,7 +1619,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1695,11 +1657,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="111" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1718,9 +1680,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1738,1039 +1700,1039 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A4" s="7" t="s">
+      <c r="B9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A5" s="7" t="s">
+      <c r="B10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5">
-      <c r="A6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A8" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="D30" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A11" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A12" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="63">
-      <c r="A15" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25">
-      <c r="A16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="63">
-      <c r="A19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25">
-      <c r="A21" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A22" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="D44" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A24" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A25" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A27" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A28" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A29" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="63">
-      <c r="A30" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5">
-      <c r="A31" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25">
-      <c r="A32" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A33" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A34" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A35" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A36" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A37" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A38" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A39" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A40" s="7" t="s">
+      <c r="E45" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A41" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A42" s="7" t="s">
+      <c r="F45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A43" s="7" t="s">
+      <c r="H45" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A44" s="7" t="s">
+      <c r="I45" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5">
-      <c r="A45" s="17" t="s">
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D46" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75">
-      <c r="A46" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1">
-      <c r="A47" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1">
-      <c r="A48" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>32</v>
@@ -2778,21 +2740,21 @@
       <c r="F48" s="6"/>
       <c r="G48" s="10"/>
     </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1">
-      <c r="A49" s="14" t="s">
+    <row r="49" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B49" s="15" t="s">
-        <v>56</v>
+      <c r="B49" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>19</v>
@@ -2801,327 +2763,327 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>59</v>
+      <c r="B50" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1">
-      <c r="A51" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="15" t="s">
-        <v>61</v>
+      <c r="B51" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>365</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5">
-      <c r="A52" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="15" t="s">
-        <v>66</v>
+      <c r="B52" s="14" t="s">
+        <v>63</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1">
-      <c r="A53" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="15" t="s">
-        <v>67</v>
+      <c r="B53" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1">
-      <c r="A54" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="15" t="s">
-        <v>70</v>
+      <c r="B54" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>128</v>
+        <v>68</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1">
-      <c r="A55" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="15" t="s">
-        <v>72</v>
+      <c r="B55" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A56" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="15" t="s">
-        <v>79</v>
+      <c r="B56" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="10"/>
       <c r="H56" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1">
-      <c r="A57" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="15" t="s">
-        <v>80</v>
+      <c r="B57" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5">
-      <c r="A58" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="110.25">
-      <c r="A59" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="15" t="s">
-        <v>99</v>
+      <c r="B59" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25">
-      <c r="A60" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1">
-      <c r="A62" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B62" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3136,18 +3098,18 @@
       <c r="F62" s="6"/>
       <c r="G62" s="10"/>
     </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="63">
-      <c r="A63" s="17" t="s">
+    <row r="63" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>38</v>
@@ -3158,81 +3120,25 @@
         <v>49</v>
       </c>
       <c r="I63" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A64" s="17" t="s">
+      <c r="D64" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1">
-      <c r="A65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" s="5" customFormat="1">
-      <c r="A66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1">
-      <c r="A67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1">
-      <c r="A68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" ht="47.25">
-      <c r="B69" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D69" s="13"/>
-      <c r="E69" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="47.25">
-      <c r="B70" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D70" s="13"/>
-      <c r="E70" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="31.5">
-      <c r="B71" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D71" s="13"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" ht="47.25">
-      <c r="B72" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="360">
   <si>
     <t>question</t>
   </si>
@@ -382,9 +382,6 @@
     <t>1.20</t>
   </si>
   <si>
-    <t xml:space="preserve">1..21.jpg; </t>
-  </si>
-  <si>
     <t>1.22</t>
   </si>
   <si>
@@ -891,13 +888,7 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 2000, 2001, 2002, 2003, 2004, 2005, 2006, 2007, 2008, 2009, 2010, 2011</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 2011- 2017 годах?</t>
-  </si>
-  <si>
     <t>Силуанов Антон Германович - Министр финансов Российской Федерации с 16 декабря 2011 года по настоящее время</t>
-  </si>
-  <si>
-    <t>Кто, был, Министр, финансов, Российская Федерация, 2011, 2012, 2013, 2014, 2015, 2016, 2017</t>
   </si>
   <si>
     <t>https://www.minfin.ru/ru/ministry/history/</t>
@@ -1139,6 +1130,15 @@
   </si>
   <si>
     <t>С 1858 г. по 1862 г. пост Министра финансов Российской Империи занимал Княжевич Александр Максимович, а его брат - Княжевич Дмитрий Максимович был директором Департамента государственного казначейства с 1831 г. по 1837 г.</t>
+  </si>
+  <si>
+    <t>Кто является Министром финансов в 2011 -  настоящее время?</t>
+  </si>
+  <si>
+    <t>Кто, Министр, финансов, Российская Федерация, 2011, 2012, 2013, 2014, 2015, 2016, 2017, сейчас, текущий, настоящий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.21.jpg; </t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1700,979 +1700,985 @@
         <v>19</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>145</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>207</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>230</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="F43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>280</v>
-      </c>
       <c r="E44" s="6" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="H45" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>326</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -2683,19 +2689,19 @@
         <v>24</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,16 +2715,16 @@
         <v>31</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,10 +2735,10 @@
         <v>30</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>32</v>
@@ -2751,7 +2757,7 @@
         <v>55</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>54</v>
@@ -2771,10 +2777,10 @@
         <v>56</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>57</v>
@@ -2783,7 +2789,7 @@
         <v>19</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2794,10 +2800,10 @@
         <v>58</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>59</v>
@@ -2806,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -2829,7 +2835,7 @@
         <v>19</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2840,10 +2846,10 @@
         <v>64</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>65</v>
@@ -2852,13 +2858,13 @@
         <v>19</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,7 +2878,7 @@
         <v>68</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>66</v>
@@ -2881,13 +2887,13 @@
         <v>19</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H54" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>123</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2910,7 +2916,7 @@
         <v>19</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -2983,7 +2989,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>87</v>
@@ -3012,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>92</v>
@@ -3041,7 +3047,7 @@
         <v>19</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>103</v>
@@ -3058,7 +3064,7 @@
         <v>107</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>105</v>
@@ -3070,7 +3076,7 @@
         <v>19</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>108</v>
@@ -3109,7 +3115,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>38</v>
@@ -3120,24 +3126,24 @@
         <v>49</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>111</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="C64" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -1138,7 +1138,7 @@
     <t>Кто, Министр, финансов, Российская Федерация, 2011, 2012, 2013, 2014, 2015, 2016, 2017, сейчас, текущий, настоящий</t>
   </si>
   <si>
-    <t xml:space="preserve">1.21.jpg; </t>
+    <t>1.21.jpg</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -64,9 +64,6 @@
     <t>Кто, был, Министр, финансов, Российская империя, 1802, 1803, 1804, 1805, 1806, 1807</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1802 -1807 годах?</t>
-  </si>
-  <si>
     <t>С одна тысяча восемьсот второго года по одна тысяча восемьсот седьмой год Министром финансов был Васильев Алексей Иванович</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>1.18</t>
   </si>
   <si>
-    <t>«Железным наркомом с Ильинки» называли Сокольникова Григория Яковлевича – 1-го народного комиссара финансов СССР</t>
-  </si>
-  <si>
     <t>Нарком, народный комиссар, железный, Ильинка, министр, финансов</t>
   </si>
   <si>
@@ -1032,9 +1026,6 @@
     <t>Васильев Алексей Иванович</t>
   </si>
   <si>
-    <t>1.3.jpg</t>
-  </si>
-  <si>
     <t>Первым Министром финансов в Российской империи был Васильев Алексей Иванович – с восьмого сентября одна тысяча восемьсот второго по пятнадцатое августа одна тысяча восемьсот седьмого года</t>
   </si>
   <si>
@@ -1139,6 +1130,15 @@
   </si>
   <si>
     <t>1.21.jpg</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1802 - 1807 годах?</t>
+  </si>
+  <si>
+    <t>«Железным наркомом с Ильинки» называли Сокольникова Григория Яковлевича – первого народного комиссара финансов СССР</t>
+  </si>
+  <si>
+    <t>1.2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1659,36 +1659,36 @@
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>12</v>
@@ -1697,1453 +1697,1453 @@
         <v>13</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>157</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>163</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>186</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>200</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>203</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="E28" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>237</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>241</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>249</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D40" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="I45" s="5" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="C46" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F46" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F47" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="F49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F50" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="F51" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="F52" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="F53" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D54" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="F55" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="10"/>
       <c r="H56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H58" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="8" t="s">
+      <c r="F60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="D62" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="10"/>
       <c r="H63" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="D64" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -141,9 +141,6 @@
 • Министры Временного правительства Некрасов Николай Виссарионович (07.1917-08.1917) и Бернацкий Михаил Владимирович (09.1917-10.1917)</t>
   </si>
   <si>
-    <t>Самый, молодой, Министр, финансы, Министр финансов</t>
-  </si>
-  <si>
     <t>1.8</t>
   </si>
   <si>
@@ -1014,9 +1011,6 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>Кто, первый, Министр, финансов</t>
-  </si>
-  <si>
     <t>Кто был первым Министром финансов?</t>
   </si>
   <si>
@@ -1139,6 +1133,12 @@
   </si>
   <si>
     <t>1.2.jpg</t>
+  </si>
+  <si>
+    <t>Кто, первый, Министр, финансов, 1</t>
+  </si>
+  <si>
+    <t>Самый, молодой, Министр, финансы</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1682,10 +1682,10 @@
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
@@ -1700,985 +1700,985 @@
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="F20" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="F22" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>198</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>201</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>235</v>
-      </c>
       <c r="F33" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>239</v>
-      </c>
       <c r="F34" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="F35" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>247</v>
-      </c>
       <c r="F36" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="E37" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="F37" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="F38" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="F39" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="F40" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="F41" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="F42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="F43" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="C45" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="H45" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="I45" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -2689,19 +2689,19 @@
         <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,16 +2715,16 @@
         <v>30</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -2735,10 +2735,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>31</v>
@@ -2751,16 +2751,16 @@
         <v>32</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>18</v>
@@ -2771,323 +2771,323 @@
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="E52" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B53" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="D54" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H54" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="10"/>
       <c r="H56" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="5" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="10"/>
       <c r="H57" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="D58" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="5" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D61" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H61" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="5" customFormat="1" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>34</v>
@@ -3106,44 +3106,44 @@
     </row>
     <row r="63" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B63" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D63" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>37</v>
+        <v>359</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="10"/>
       <c r="H63" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="C64" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/1_questions.xlsx
+++ b/data/minfin/1_questions.xlsx
@@ -442,9 +442,6 @@
     <t xml:space="preserve">Раздел «Историческая справка» на официальном сайте Министерства финансов Российской Федерации </t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1807 - 1810 годах?</t>
-  </si>
-  <si>
     <t xml:space="preserve">С августа одна тысяча восемьсот седьмого года по январь одна тысяча восемьсот десятого года Министром финансов был Голубцов Федор Александрович </t>
   </si>
   <si>
@@ -455,18 +452,12 @@
     <t>Кто, был, Министр, финансов, Российская империя, 1807, 1808, 1809, 1810</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1810 - 1823 годах?</t>
-  </si>
-  <si>
     <t>Гурьев Дмитрий Александрович - Министр финансов Российской империи с 1 января 1810 года по 22 апреля 1823 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1823 - 1844 годах?</t>
-  </si>
-  <si>
     <t>С апреля одна тысяча восемьсот двадцать третьего года по май одна тысяча весемьсот сорок четвертого года Министром финансов был Канкрин Егор Францевич</t>
   </si>
   <si>
@@ -476,9 +467,6 @@
     <t>Кто, был, Министр, финансов, Российская империя, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1844 - 1852 годах?</t>
-  </si>
-  <si>
     <t>С мая одна тысяча восемьсот сорок четвертого года по апрель одна тысяча весемьсот пятьдесят второго года Министром финансов был Вронченко Федор Павлович</t>
   </si>
   <si>
@@ -488,72 +476,48 @@
     <t>Кто, был, Министр, финансов, Российская империя, 1844,1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1852 - 1858 годах?</t>
-  </si>
-  <si>
     <t>Брок Петр Федорович - Министр финансов Российской империи с 9 апреля 1852 года по 23 марта 1858 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1852, 1853, 1854, 1855, 1856, 1857, 1858</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1858 - 1862 годах?</t>
-  </si>
-  <si>
     <t>Княжевич Александр Максимович - Министр финансов Российской империи с 23 марта 1858 года по 23 января 1862 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1858, 1859, 1860, 1861, 1862</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1862 - 1878 годах?</t>
-  </si>
-  <si>
     <t>Рейтерн Михаил Христофорович - Министр финансов Российской империи с 23 января 1962 года по 7 июля 1878 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1878 - 1880 годах?</t>
-  </si>
-  <si>
     <t>Грейг Самуил Алексеевич - Министр финансов Российской империи с 7 июля 1878 года по 27 октября 1880 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1878, 1879, 1880</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1880 - 1881 годах?</t>
-  </si>
-  <si>
     <t>Абаза Александр Агеевич - Министр финансов Российской империи с 27 октября 1880 года по 6 мая 1881 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1880, 1881</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1881 - 1886 годах?</t>
-  </si>
-  <si>
     <t>Бунге Николай Христианович - Министр финансов Российской империи с 6 мая 1881 года по 31 декабря 1886 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1881, 1882, 1883, 1884, 1885, 1886</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1887 - 1892 годах?</t>
-  </si>
-  <si>
     <t>Вышнеградский Иван Алексеевич - Министр финансов Российской империи с 1 января 1887 года по 30 августа 1892 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1887, 1888, 1889, 1890, 1891, 1892</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1892 - 1903 годах?</t>
-  </si>
-  <si>
     <t>С августа одна тысяча восемьсот девяносто второго года по август одна тысяча девятьсот третьего года Министром финансов был Витте Сергей Юльевич</t>
   </si>
   <si>
@@ -563,9 +527,6 @@
     <t>Кто, был, Министр, финансов, Российская империя, 1892, 1893, 1894, 1895, 1896, 1897, 1898, 1899, 1900, 1901, 1902, 1903</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1903 - 1904 годах?</t>
-  </si>
-  <si>
     <t>С августа одна тысяча девятьсот третьего года по февраль  одна тысяча девятьсот четвертого года Министром финансов был Плеске Эдуард Дмитриевич</t>
   </si>
   <si>
@@ -575,24 +536,15 @@
     <t>Кто, был, Министр, финансов, Российская империя, 1903, 1904</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1905 - 1906 годах?</t>
-  </si>
-  <si>
     <t>С октября одна тысяча девятьсот пятого года по апрель одна тысяча девятьсот шестого года Министром финансов был Шипов Иван Павлович</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1905, 1906</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1904 - 1905 годах?</t>
-  </si>
-  <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1904, 1905</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1906 - 1914 годах?</t>
-  </si>
-  <si>
     <t>С апреля одна тысяча девятьсот шестого года по январь одна тысяча девятьсот четырнадцатого года Министром финансов был Коковцов Владимир Николаевич</t>
   </si>
   <si>
@@ -600,9 +552,6 @@
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская империя, 1906, 1907, 1908, 1909, 1910, 1911, 1912, 1913, 1914</t>
-  </si>
-  <si>
-    <t>Кто был Министром финансов в 1914 - 1917 годах?</t>
   </si>
   <si>
     <t>С февраля одна тысяча девятьсот четырнадцатого года по февраль одна тысяча девятьсот семнадцатого года Министром финансов был Барк Петр Львович</t>
@@ -627,9 +576,6 @@
     <t>Кто, был, Министр, финансов, Временное правительство, 1917</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1918 - 1919 годах?</t>
-  </si>
-  <si>
     <t>Михайлов Иван Адрианович - Министр финансов Временного правительства с 18 ноября 1918 года по 16 августа 1919 года</t>
   </si>
   <si>
@@ -648,27 +594,18 @@
     <t>Кто, был, Министр, финансов, Российской правительство, 1919</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1923 - 1926 годах?</t>
-  </si>
-  <si>
     <t>С июля одна тысяча девятьсот двадцать третьего года по январь одна тысяча девятьсот двадцать шестого года Министром финансов эСэСэСэР был Сокольников Григорий Яковлевич</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, СССР, 1923, 1924, 1925, 1926</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1926 - 1930 годах?</t>
-  </si>
-  <si>
     <t>С января одна тысяча девятьсот двадцать шестого года по октябрь одна тысяча девятьсот тридцатого года Нарком финансов эСэСэСэР был Брюханов Николай Павлович</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Нарком, СССР, 1926, 1925, 1926, 1927, 1928, 1929, 1930</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1930 - 1937 годах?</t>
-  </si>
-  <si>
     <t>С октября одна тысяча девятьсот тридцатого года по август одна тысяча девятьсот тридцать седьмого года Нарком финансов эСэСэСэР был Гринько Григорий Федорович</t>
   </si>
   <si>
@@ -678,9 +615,6 @@
     <t>Кто, был, Министр, финансов, Нарком, СССР, 1930, 1931, 1932, 1933, 1934, 1935, 1936, 1937</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1937 - 1938 годах?</t>
-  </si>
-  <si>
     <t>С августа одна тысяча девятьсот тридцать седьмого года по январь одна тысяча девятьсот тридцать восьмого года Нарком финансов эСэСэСэР был Чубарь Влас Яковлевич</t>
   </si>
   <si>
@@ -690,9 +624,6 @@
     <t>Кто, был, Министр, финансов, Нарком, СССР, 1937, 1938</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1938 - 1948 годах?</t>
-  </si>
-  <si>
     <t>С января одна тысяча девятьсот тридцать восьмого года по март одна тысяча девятьсот сорок восьмого года Министром финансов эСэСэСэР был Зверев Арсений Григорьевич</t>
   </si>
   <si>
@@ -714,18 +645,12 @@
     <t>Кто, был, Министр, финансов, СССР, 1948</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1948 - 1960 годах?</t>
-  </si>
-  <si>
     <t>Зверев Арсений Григорьевич - Министр финансов СССР с 28 декабря 1948 года по 16 мая 1960 года</t>
   </si>
   <si>
     <t>Кто, был, Министр, финансов, СССР, 1948, 1949, 1950, 1951, 1952, 1953, 1954, 1955, 1956, 1957, 1958, 1959, 1960</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1960 - 1985 годах?</t>
-  </si>
-  <si>
     <t>С мая одна тысяча девятьсот шестидесятого года по ноябрь одна тысяча девятьсот восемьдесят пятого года Министром финансов эСэСэСэР был Гарбузов Василий Фёдорович</t>
   </si>
   <si>
@@ -735,9 +660,6 @@
     <t>Кто, был, Министр, финансов, СССР, 1960, 1961, 1962, 1963, 1964, 1965, 1966, 1967, 1968, 1969, 1970, 1971, 1972, 1973, 1974, 1975, 1976, 1977, 1978, 1979, 1980, 1981, 1982, 1983, 1984, 1985</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1985 - 1989 годах?</t>
-  </si>
-  <si>
     <t>С декабря одна тысяча девятьсот восемьдесят пятого года по июнь одна тысяча девятьсот восемьдесят девятого года Министром финансов эСэСэСэР был Гостев Борис Иванович</t>
   </si>
   <si>
@@ -747,9 +669,6 @@
     <t>Кто, был, Министр, финансов, СССР, 1985, 1986, 1987, 1988, 1989</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1989 - 1990 годах?</t>
-  </si>
-  <si>
     <t>С июля одна тысяча девятьсот восемьдесят девятого года по декабрь одна тысяча девятьсот девяностого года Министром финансов эСэСэСэР был Павлов Валентин Сергеевич</t>
   </si>
   <si>
@@ -771,9 +690,6 @@
     <t>Кто, был, Министр, финансов, СССР, 1991</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1991 - 1992 годах?</t>
-  </si>
-  <si>
     <t>С ноября одна тысяча девятьсот девяносто первого года по апрель одна тысяча девятьсот девяносто второго года Министром финансов Российской Федерации был Гайдай Егор Тимурович</t>
   </si>
   <si>
@@ -783,9 +699,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 1991, 1992</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1992 - 1993 годах?</t>
-  </si>
-  <si>
     <t>С апреля одна тысяча девятьсот девяносто второго года по март одна тысяча девятьсот девяносто третьего года Министром финансов Российской Федерации был Барчук Василий Васильевич</t>
   </si>
   <si>
@@ -795,9 +708,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 1992, 1993</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1993 - 1994 годах?</t>
-  </si>
-  <si>
     <t>С марта одна тысяча девятьсот девяносто третьего года по январь одна тысяча девятьсот девяносто четвертого года Министром финансов Российской Федерации был Фёдоров Борис Григорьевич</t>
   </si>
   <si>
@@ -807,9 +717,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 1993, 1994</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1994 - 1996 годах?</t>
-  </si>
-  <si>
     <t>С ноября одна тысяча девятьсот девяносто четвертого года по август одна тысяча девятьсот девяносто шестого года Министром финансов Российской Федерации был Пансков Владимир Георгиевич</t>
   </si>
   <si>
@@ -819,9 +726,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 1994, 1995, 1996</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1996 - 1997 годах?</t>
-  </si>
-  <si>
     <t>С августа одна тысяча девятьсот девяносто шестого года по март одна тысяча девятьсот девяносто седьмого года Министром финансов Российской Федерации был Лившиц Александр Яковлевич</t>
   </si>
   <si>
@@ -843,9 +747,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 1997</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1997 - 1999 годах?</t>
-  </si>
-  <si>
     <t>С ноября одна тысяча девятьсот девяносто седьмого года по май одна тысяча девятьсот девяносто девятого года Министром финансов Российской Федерации был Задорнов Михаил Михайлович</t>
   </si>
   <si>
@@ -855,9 +756,6 @@
     <t>Кто, был, Министр, финансов, Российская Федерация, 1997, 1998, 1999</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1999 - 2000 годах?</t>
-  </si>
-  <si>
     <t>С мая одна тысяча девятьсот девяносто девятого года по май двухтысячного года Министром финансов Российской Федерации был Касьянов Михаил Михайлович</t>
   </si>
   <si>
@@ -865,9 +763,6 @@
   </si>
   <si>
     <t>Кто, был, Министр, финансов, Российская Федерация, 1999, 2000</t>
-  </si>
-  <si>
-    <t>Кто был Министром финансов в 2000 - 2011 годах?</t>
   </si>
   <si>
     <t>С мая двухтысячного года по сентябрь две тысячи одиннадцатого года Министром финансов Российской Федерации был Кудрин Алексей Леонидович</t>
@@ -1117,18 +1012,12 @@
     <t>С 1858 г. по 1862 г. пост Министра финансов Российской Империи занимал Княжевич Александр Максимович, а его брат - Княжевич Дмитрий Максимович был директором Департамента государственного казначейства с 1831 г. по 1837 г.</t>
   </si>
   <si>
-    <t>Кто является Министром финансов в 2011 -  настоящее время?</t>
-  </si>
-  <si>
     <t>Кто, Министр, финансов, Российская Федерация, 2011, 2012, 2013, 2014, 2015, 2016, 2017, сейчас, текущий, настоящий</t>
   </si>
   <si>
     <t>1.21.jpg</t>
   </si>
   <si>
-    <t>Кто был Министром финансов в 1802 - 1807 годах?</t>
-  </si>
-  <si>
     <t>«Железным наркомом с Ильинки» называли Сокольникова Григория Яковлевича – первого народного комиссара финансов СССР</t>
   </si>
   <si>
@@ -1139,6 +1028,117 @@
   </si>
   <si>
     <t>Самый, молодой, Министр, финансы</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1802–1807 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1807–1810 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1810–1823 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1823–1844 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1844–1852 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1852–1858 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1858–1862 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1862–1878 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1878–1880 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1880–1881 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1881–1886 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1887–1892 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1892–1903 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1903–1904 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1905–1906 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1904–1905 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1906–1914 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1914–1917 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1918–1919 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1923–1926 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1926–1930 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1930–1937 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1937–1938 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1938–1948 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1948–1960 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1960–1985 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1985–1989 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1989–1990 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1991–1992 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1992–1993 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1993–1994 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1994–1996 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1996–1997 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1997–1999 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 1999–2000 годах?</t>
+  </si>
+  <si>
+    <t>Кто был Министром финансов в 2000–2011 годах?</t>
+  </si>
+  <si>
+    <t>Кто является Министром финансов в 2011– настоящее время?</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1595,10 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1685,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
@@ -1700,985 +1700,985 @@
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="F4" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="F5" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="F6" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>146</v>
+        <v>328</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>332</v>
+        <v>297</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>152</v>
+        <v>330</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>155</v>
+        <v>331</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>158</v>
+        <v>332</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>340</v>
+        <v>305</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>161</v>
+        <v>333</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>175</v>
+        <v>337</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>178</v>
+        <v>338</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>180</v>
+        <v>339</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>184</v>
+        <v>340</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>191</v>
+        <v>341</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>337</v>
+        <v>302</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>201</v>
+        <v>343</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="5" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>348</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>227</v>
+        <v>349</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>239</v>
+        <v>351</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>247</v>
+        <v>353</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>251</v>
+        <v>354</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>255</v>
+        <v>355</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>263</v>
+        <v>356</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>353</v>
-      </c>
       <c r="F44" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
@@ -2689,10 +2689,10 @@
         <v>23</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>24</v>
@@ -2715,7 +2715,7 @@
         <v>30</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>27</v>
@@ -2735,10 +2735,10 @@
         <v>29</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>326</v>
+        <v>291</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>31</v>
@@ -2757,7 +2757,7 @@
         <v>53</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>52</v>
@@ -2777,7 +2777,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>114</v>
@@ -2800,10 +2800,10 @@
         <v>56</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>57</v>
@@ -2849,7 +2849,7 @@
         <v>116</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>63</v>
@@ -3038,7 +3038,7 @@
         <v>96</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>99</v>
@@ -3115,10 +3115,10 @@
         <v>46</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="10"/>
@@ -3126,7 +3126,7 @@
         <v>47</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="5" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
